--- a/biology/Zoologie/Plecia_conica/Plecia_conica.xlsx
+++ b/biology/Zoologie/Plecia_conica/Plecia_conica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia haennii
 Plecia conica est une espèce fossile de mouche ou diptère de la famille des Bibionidae ou « mouches de Saint-Marc » (ou mouches noires), et du genre Plecia.
@@ -512,20 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Plecia conica est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype R657 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 28,1 Ma.) fait partie de la collection Mieg du musée de Bâle et vient de Kleinkembs dans le pays de Bade en Allemagne[1]. 
-Répartition
-Selon Paleobiology Database en 2023, il a quatre collections référencées dont trois en France et une en Allemagne[2]. Deux collections de France viennent de Saint-Maime et Dauphin dans la réserve géologique du Luberon, près de Apt et seraient au Muséum national d'histoire naturelle de Paris[note 1][3].
-Synonyme
-L'espèce Plecia haennii décrite par l'entomologiste italien Gentilini (d) en 1993[4] vient de Provence (provenance exacte inconnue) et de sa collection personnelle, et est déclarée synonyme en 2017 par John Skartveit et André Nel[3] et 2021 par John Skartveit et Sonja Wedmann[5]. L'holotype est un mâle échantillon n°4.
-Confirmation du genre Plecia
-Cette espèce est confirmée dans le genre Plecia en 2017 par John Skartveit et André Nel[3] et en 2021 par John Skartveit et Sonja Wedmann[5]. 
-Étymologie
-L'épithète spécifique conica signifie en latin « conique ». Voir aussi #Affinités
-L'épithète spécifique haennii est un hommage au Dr Haenni du musée d'Histoire naturelle de Neuchâtel[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Plecia conica est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -551,18 +554,280 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype R657 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 28,1 Ma.) fait partie de la collection Mieg du musée de Bâle et vient de Kleinkembs dans le pays de Bade en Allemagne. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plecia_conica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_conica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, il a quatre collections référencées dont trois en France et une en Allemagne. Deux collections de France viennent de Saint-Maime et Dauphin dans la réserve géologique du Luberon, près de Apt et seraient au Muséum national d'histoire naturelle de Paris[note 1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plecia_conica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_conica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Plecia haennii décrite par l'entomologiste italien Gentilini (d) en 1993 vient de Provence (provenance exacte inconnue) et de sa collection personnelle, et est déclarée synonyme en 2017 par John Skartveit et André Nel et 2021 par John Skartveit et Sonja Wedmann. L'holotype est un mâle échantillon n°4.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plecia_conica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_conica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Confirmation du genre Plecia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est confirmée dans le genre Plecia en 2017 par John Skartveit et André Nel et en 2021 par John Skartveit et Sonja Wedmann. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plecia_conica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_conica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique conica signifie en latin « conique ». Voir aussi #Affinités
+L'épithète spécifique haennii est un hommage au Dr Haenni du musée d'Histoire naturelle de Neuchâtel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plecia_conica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_conica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 2] :
-« Teinte noire sur tête et thorax, brune sur l'abdomen, aile claire, n'atteint pas l'extrémité de l'abdomen. Tête arrondie relativement grosse, deux gros yeux non contigus, deux antennes courtes, neuf articles visibles. Thorax de forme ovale, légèrement renflé en bouclier sur le dos, dépression en « U » faiblement indiquée ; scutellum court ; méta-thorax étroit. Abdomen finement pubescent s'amincit progressivement vers l'arrière, huit segments. Pattes manquent. Ailes à nervation de Plecia ; M bifurquée, la branche antérieure fortement courbée, la branche postérieure à peine sinuée. »[1].
-Dimensions
-La longueur du corps est de 7 mm ; la tête a une longueur de 1 mm et une largeur de 1 mm ; la longueur du thorax 2 mm ; la longueur de l'abdomen 4 mm pour une largeur de 1,5 mm ; l'aile a une longueur de 4 mm[1].
-Affinités
-« P. conica se distingue des autres espèces de Plecia, par la forme de l'abdomen qui s'amincit régulièrement d'avant en arrière. »[1].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 2] :
+« Teinte noire sur tête et thorax, brune sur l'abdomen, aile claire, n'atteint pas l'extrémité de l'abdomen. Tête arrondie relativement grosse, deux gros yeux non contigus, deux antennes courtes, neuf articles visibles. Thorax de forme ovale, légèrement renflé en bouclier sur le dos, dépression en « U » faiblement indiquée ; scutellum court ; méta-thorax étroit. Abdomen finement pubescent s'amincit progressivement vers l'arrière, huit segments. Pattes manquent. Ailes à nervation de Plecia ; M bifurquée, la branche antérieure fortement courbée, la branche postérieure à peine sinuée. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plecia_conica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_conica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 7 mm ; la tête a une longueur de 1 mm et une largeur de 1 mm ; la longueur du thorax 2 mm ; la longueur de l'abdomen 4 mm pour une largeur de 1,5 mm ; l'aile a une longueur de 4 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Plecia_conica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_conica</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« P. conica se distingue des autres espèces de Plecia, par la forme de l'abdomen qui s'amincit régulièrement d'avant en arrière. ».
  Voir aussi #Étymologie
 </t>
         </is>
